--- a/biccamera.xlsx
+++ b/biccamera.xlsx
@@ -48,10 +48,10 @@
     <t>Hoai2005</t>
   </si>
   <si>
-    <t>https://www.yodobashi.com/product/100000001006404769, https://www.yodobashi.com/product/100000001004518517</t>
-  </si>
-  <si>
     <t>lehoai200598@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.biccamera.com/bc/item/12886428, https://www.biccamera.com/bc/item/7760392</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>60</v>

--- a/biccamera.xlsx
+++ b/biccamera.xlsx
@@ -51,7 +51,7 @@
     <t>lehoai200598@gmail.com</t>
   </si>
   <si>
-    <t>https://www.biccamera.com/bc/item/12886428, https://www.biccamera.com/bc/item/7760392</t>
+    <t>https://www.biccamera.com/bc/item/7982387, https://www.biccamera.com/bc/item/12645851</t>
   </si>
 </sst>
 </file>
